--- a/crowdfunding.xlsx
+++ b/crowdfunding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tberton/Sandbox/M8-ETL/M8-Async/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickgilchrist/Desktop/DU_Data_Analytics/Crowdfunding-ETL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D30995-0CA2-CD4A-A0F0-5AA998D31CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BCBAC5-3D9E-764D-8EE2-703C420E6705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="980" windowWidth="28560" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crowdfunding_info" sheetId="1" r:id="rId1"/>
@@ -9155,12 +9155,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9501,8 +9500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9515,7 +9514,7 @@
     <col min="14" max="14" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -53568,8 +53567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A1004"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A950" workbookViewId="0">
+      <selection activeCell="E991" sqref="E991"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
